--- a/src/test/resources/OrangeHRM_Testdata.xlsx
+++ b/src/test/resources/OrangeHRM_Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATION_WORKSPACE\OrangeHRM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972A4233-6294-4AB6-BB7D-0AB9C4701161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE433C03-3080-48B9-915E-5200DA445788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A49E3111-9F77-4D2B-A94D-7804768D982C}"/>
+    <workbookView xWindow="5115" yWindow="3315" windowWidth="15375" windowHeight="6210" xr2:uid="{A49E3111-9F77-4D2B-A94D-7804768D982C}"/>
   </bookViews>
   <sheets>
     <sheet name="OrangeHRM" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>Dashboard Text</t>
   </si>
   <si>
-    <t xml:space="preserve">Dashboard </t>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
